--- a/docs/Model and Product Interfaces.xlsx
+++ b/docs/Model and Product Interfaces.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fries/Documents/Development/Repositories/finmath lib/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71821E6D-7C1B-5242-B53E-0579AE2330B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A38002-B83F-654C-B3A0-ED0BA3F77D45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19980" xr2:uid="{E13A01DE-030A-394D-AB1C-5770A48E0C42}"/>
   </bookViews>
@@ -618,9 +618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7634F7E-11E0-114B-B048-B08583751CCC}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
